--- a/InventarioDatos-ScoringPJ.xlsx
+++ b/InventarioDatos-ScoringPJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ximena\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02104D-7EB9-4096-8BED-D246A0C8EF32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3233CFAE-EB69-4BDA-8B6F-3E6D0B9519D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D957DA14-7BF8-409A-849E-370FBCAB44C2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -120,13 +120,96 @@
     <t>Vector Moras, Reciprocidades y Calificacionesde los Clientes del Activo del Banco de Bogotá - Simulación</t>
   </si>
   <si>
-    <t>Esta información se usará para simular el comportamiento con el sitema financiero de los clientes del perfil a impactar. Debido a que la informacióndel Banco de Bogotá es privada, no es posible contar con esta.</t>
-  </si>
-  <si>
     <t>Archivos Planos</t>
   </si>
   <si>
     <t>MS Excel</t>
+  </si>
+  <si>
+    <t>Esta información se usará para simular el comportamiento con los bancos del sitema financiero (diferentes a los del Banco de Bogotá) de los clientes del perfil a impactar.</t>
+  </si>
+  <si>
+    <t>Segmentar la información financiera del cliente en indicadores, promedios, etc.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Según consulta</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Información Pública</t>
+  </si>
+  <si>
+    <t>M.I.S Banco de Bogotá</t>
+  </si>
+  <si>
+    <t>Datacrédito</t>
+  </si>
+  <si>
+    <t>CIFIN</t>
+  </si>
+  <si>
+    <t>Banco de Bogotá</t>
+  </si>
+  <si>
+    <t>Ver el comportamiento financiero del grupo objetivo</t>
+  </si>
+  <si>
+    <t>Ver el comportamiento del grupo objetivo con la entidad objetivo</t>
+  </si>
+  <si>
+    <t>Conocer la situación financiera actual y pasada del cliente</t>
+  </si>
+  <si>
+    <t>Bases de Datos</t>
+  </si>
+  <si>
+    <t>Información Privadas de pago por consulta</t>
+  </si>
+  <si>
+    <t>https://www.dane.gov.co/index.php/categoria-economicas</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Esta información se usará para ver la tasa de crecimiento y verificar las perspectivas del sector al que pertenece el cliente</t>
+  </si>
+  <si>
+    <t>Departamento de Planeación Nacional (DANE)</t>
+  </si>
+  <si>
+    <t>DANE</t>
+  </si>
+  <si>
+    <t>Verificar el comportamiento financiero del cliente</t>
+  </si>
+  <si>
+    <t>Verificar el comportamiento de los sectores de la economía y tasas de crecimiento</t>
+  </si>
+  <si>
+    <t>Conocer comportamientos sectoriales y pronosticar en qué medida esto podría impactar la situación de los clientes</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>-Bases de Datos
+-Texto</t>
+  </si>
+  <si>
+    <t>-MS Excel
+-PDF</t>
+  </si>
+  <si>
+    <t>Imformación privada sin derech de distribución</t>
   </si>
 </sst>
 </file>
@@ -200,19 +283,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -528,19 +618,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865FD70-FC8C-4525-85E6-B93618931365}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="5" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,186 +636,290 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="3"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="3"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="3"/>
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{22640F63-68BB-40EA-AF1B-1705F0AF0000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{279AC589-DE24-4E9E-B0DC-7C98477FED69}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{22640F63-68BB-40EA-AF1B-1705F0AF0000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{279AC589-DE24-4E9E-B0DC-7C98477FED69}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{12333D2F-2EDB-45EF-A7E1-45EB8C4D95E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
